--- a/import/UAB.xlsx
+++ b/import/UAB.xlsx
@@ -313,7 +313,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -373,6 +373,12 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -507,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,6 +614,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,11 +646,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,11 +658,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,7 +670,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -668,19 +678,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -943,7 +953,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,10 +1156,10 @@
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
       <c r="G17" s="21"/>
@@ -1245,24 +1255,24 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1320,8 +1330,8 @@
       <c r="B31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="2"/>
@@ -1365,96 +1375,96 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16"/>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12"/>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1496,7 +1506,7 @@
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="16"/>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -1509,11 +1519,11 @@
     </row>
     <row r="47" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="2"/>
@@ -1570,7 +1580,7 @@
     </row>
     <row r="52" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="16"/>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -1583,7 +1593,7 @@
     </row>
     <row r="53" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="16"/>
-      <c r="B53" s="31"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="10" t="s">
         <v>76</v>
       </c>
@@ -1594,50 +1604,50 @@
     </row>
     <row r="54" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="16"/>
-      <c r="B54" s="31"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="16"/>
-      <c r="B55" s="31"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16"/>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
       <c r="G56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1649,8 +1659,8 @@
         <v>84</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1660,8 +1670,8 @@
         <v>85</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1673,8 +1683,8 @@
         <v>87</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1684,8 +1694,8 @@
         <v>88</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
       <c r="G61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1697,144 +1707,144 @@
         <v>90</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
       <c r="G62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="16"/>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="35" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
       <c r="G63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="16"/>
-      <c r="B64" s="34"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
       <c r="G64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="16"/>
-      <c r="B65" s="34"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="37"/>
       <c r="G65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42" t="s">
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="42"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="2"/>
     </row>
   </sheetData>
